--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815114</v>
+        <v>111814591</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,38 +2381,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610384.0265214761</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R16" t="n">
-        <v>7121170.261031131</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814925</v>
+        <v>111815024</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2494,38 +2494,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610384.0265214761</v>
+        <v>609922.1399673244</v>
       </c>
       <c r="R17" t="n">
-        <v>7121170.261031131</v>
+        <v>7121488.212810148</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814104</v>
+        <v>111815269</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,25 +2603,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610154.5078508666</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R18" t="n">
-        <v>7121460.305022033</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814478</v>
+        <v>111815114</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,38 +2720,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610155.3487898401</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R19" t="n">
-        <v>7121461.207019502</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814688</v>
+        <v>111814478</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610011.2059644217</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R20" t="n">
-        <v>7121475.688616944</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814591</v>
+        <v>111814688</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610012.4812897337</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R21" t="n">
-        <v>7121464.398116477</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815024</v>
+        <v>111814104</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,16 +3059,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>609922.1399673244</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R22" t="n">
-        <v>7121488.212810148</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3156,10 +3156,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815269</v>
+        <v>111814925</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3168,42 +3168,44 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610053.7842541422</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R23" t="n">
-        <v>7121273.15248157</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3232,7 +3234,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3242,7 +3244,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3251,6 +3253,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814591</v>
+        <v>111815114</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,38 +2381,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610012.4812897337</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R16" t="n">
-        <v>7121464.398116477</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815269</v>
+        <v>111814478</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,25 +2603,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610053.7842541422</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R18" t="n">
-        <v>7121273.15248157</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815114</v>
+        <v>111814591</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,38 +2720,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610384.0265214761</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R19" t="n">
-        <v>7121170.261031131</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814478</v>
+        <v>111814688</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610155.3487898401</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R20" t="n">
-        <v>7121461.207019502</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814688</v>
+        <v>111815269</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,21 +2946,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610011.2059644217</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R21" t="n">
-        <v>7121475.688616944</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815114</v>
+        <v>111814104</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,38 +2381,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610384.0265214761</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R16" t="n">
-        <v>7121170.261031131</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815024</v>
+        <v>111814688</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>609922.1399673244</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R17" t="n">
-        <v>7121488.212810148</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814478</v>
+        <v>111815114</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2607,38 +2607,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610155.3487898401</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R18" t="n">
-        <v>7121461.207019502</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814591</v>
+        <v>111815269</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,25 +2716,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610012.4812897337</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R19" t="n">
-        <v>7121464.398116477</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814688</v>
+        <v>111814478</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610011.2059644217</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R20" t="n">
-        <v>7121475.688616944</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815269</v>
+        <v>111814591</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610053.7842541422</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R21" t="n">
-        <v>7121273.15248157</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814104</v>
+        <v>111815024</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,16 +3059,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610154.5078508666</v>
+        <v>609922.1399673244</v>
       </c>
       <c r="R22" t="n">
-        <v>7121460.305022033</v>
+        <v>7121488.212810148</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3270,6 +3270,122 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111881914</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Åsele 1:1, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>610408.7246031044</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7121114.457637121</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814688</v>
+        <v>111815024</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610011.2059644217</v>
+        <v>609922.1399673244</v>
       </c>
       <c r="R17" t="n">
-        <v>7121475.688616944</v>
+        <v>7121488.212810148</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815114</v>
+        <v>111814688</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,42 +2603,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610384.0265214761</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R18" t="n">
-        <v>7121170.261031131</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815269</v>
+        <v>111814591</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,25 +2716,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610053.7842541422</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R19" t="n">
-        <v>7121273.15248157</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814478</v>
+        <v>111815269</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610155.3487898401</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R20" t="n">
-        <v>7121461.207019502</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,7 +2930,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814591</v>
+        <v>111814478</v>
       </c>
       <c r="B21" t="n">
         <v>77515</v>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610012.4812897337</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R21" t="n">
-        <v>7121464.398116477</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815024</v>
+        <v>111815114</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,38 +3059,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>609922.1399673244</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R22" t="n">
-        <v>7121488.212810148</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814104</v>
+        <v>111814478</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610154.5078508666</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R16" t="n">
-        <v>7121460.305022033</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815024</v>
+        <v>111814591</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2494,21 +2494,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>609922.1399673244</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R17" t="n">
-        <v>7121488.212810148</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814688</v>
+        <v>111815269</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2607,21 +2607,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610011.2059644217</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R18" t="n">
-        <v>7121475.688616944</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814591</v>
+        <v>111814688</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,25 +2716,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610012.4812897337</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R19" t="n">
-        <v>7121464.398116477</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815269</v>
+        <v>111815024</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610053.7842541422</v>
+        <v>609922.1399673244</v>
       </c>
       <c r="R20" t="n">
-        <v>7121273.15248157</v>
+        <v>7121488.212810148</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814478</v>
+        <v>111814104</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,21 +2946,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610155.3487898401</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R21" t="n">
-        <v>7121461.207019502</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3386,6 +3386,1014 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112013691</v>
+      </c>
+      <c r="B25" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>610134.4051595986</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7121460.896015909</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112013700</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>610101.9650201321</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7121415.702941997</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112013697</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>610102.0736959254</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7121412.654772604</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112013690</v>
+      </c>
+      <c r="B28" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>610051.8565798617</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7121425.252971379</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112013704</v>
+      </c>
+      <c r="B29" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>610093.591720929</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7121454.644715369</v>
+      </c>
+      <c r="S29" t="n">
+        <v>25</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112013696</v>
+      </c>
+      <c r="B30" t="n">
+        <v>86961</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4962</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mjölsvärting</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lyophyllum semitale</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr. : Fr.) Kühner</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>610070.1349689787</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7121402.360087069</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112013698</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>610094.4326785516</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7121455.546697079</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112013699</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>610068.1736430819</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7121408.394281525</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112013703</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Spångmyran, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>610144.4332068264</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7121461.253672058</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814478</v>
+        <v>111814104</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610155.3487898401</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R16" t="n">
-        <v>7121461.207019502</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814591</v>
+        <v>111815269</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610012.4812897337</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R17" t="n">
-        <v>7121464.398116477</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815269</v>
+        <v>111815024</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,25 +2603,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610053.7842541422</v>
+        <v>609922.1399673244</v>
       </c>
       <c r="R18" t="n">
-        <v>7121273.15248157</v>
+        <v>7121488.212810148</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814688</v>
+        <v>111815114</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,42 +2716,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610011.2059644217</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R19" t="n">
-        <v>7121475.688616944</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815024</v>
+        <v>111814688</v>
       </c>
       <c r="B20" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>609922.1399673244</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R20" t="n">
-        <v>7121488.212810148</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814104</v>
+        <v>111814591</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,21 +2946,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610154.5078508666</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R21" t="n">
-        <v>7121460.305022033</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815114</v>
+        <v>111814478</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,38 +3059,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610384.0265214761</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R22" t="n">
-        <v>7121170.261031131</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3388,10 +3388,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013691</v>
+        <v>112013697</v>
       </c>
       <c r="B25" t="n">
-        <v>88489</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610134.4051595986</v>
+        <v>610102.0736959254</v>
       </c>
       <c r="R25" t="n">
-        <v>7121460.896015909</v>
+        <v>7121412.654772604</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013700</v>
+        <v>112013691</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,21 +3516,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610101.9650201321</v>
+        <v>610134.4051595986</v>
       </c>
       <c r="R26" t="n">
-        <v>7121415.702941997</v>
+        <v>7121460.896015909</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013697</v>
+        <v>112013700</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,21 +3628,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610102.0736959254</v>
+        <v>610101.9650201321</v>
       </c>
       <c r="R27" t="n">
-        <v>7121412.654772604</v>
+        <v>7121415.702941997</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013690</v>
+        <v>112013696</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>86961</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,21 +3740,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>4962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610051.8565798617</v>
+        <v>610070.1349689787</v>
       </c>
       <c r="R28" t="n">
-        <v>7121425.252971379</v>
+        <v>7121402.360087069</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3836,10 +3836,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013704</v>
+        <v>112013703</v>
       </c>
       <c r="B29" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3852,21 +3852,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610093.591720929</v>
+        <v>610144.4332068264</v>
       </c>
       <c r="R29" t="n">
-        <v>7121454.644715369</v>
+        <v>7121461.253672058</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3948,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013696</v>
+        <v>112013698</v>
       </c>
       <c r="B30" t="n">
-        <v>86961</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3964,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4962</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610070.1349689787</v>
+        <v>610094.4326785516</v>
       </c>
       <c r="R30" t="n">
-        <v>7121402.360087069</v>
+        <v>7121455.546697079</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013698</v>
+        <v>112013690</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4076,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610094.4326785516</v>
+        <v>610051.8565798617</v>
       </c>
       <c r="R31" t="n">
-        <v>7121455.546697079</v>
+        <v>7121425.252971379</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013699</v>
+        <v>112013704</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610068.1736430819</v>
+        <v>610093.591720929</v>
       </c>
       <c r="R32" t="n">
-        <v>7121408.394281525</v>
+        <v>7121454.644715369</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4284,7 +4284,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013703</v>
+        <v>112013699</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610144.4332068264</v>
+        <v>610068.1736430819</v>
       </c>
       <c r="R33" t="n">
-        <v>7121461.253672058</v>
+        <v>7121408.394281525</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814104</v>
+        <v>111815269</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,25 +2377,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610154.5078508666</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R16" t="n">
-        <v>7121460.305022033</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815269</v>
+        <v>111814478</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610053.7842541422</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R17" t="n">
-        <v>7121273.15248157</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815114</v>
+        <v>111814688</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,42 +2716,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610384.0265214761</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R19" t="n">
-        <v>7121170.261031131</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814688</v>
+        <v>111814591</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610011.2059644217</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R20" t="n">
-        <v>7121475.688616944</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814591</v>
+        <v>111815114</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,38 +2946,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610012.4812897337</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R21" t="n">
-        <v>7121464.398116477</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814478</v>
+        <v>111814104</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,21 +3059,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610155.3487898401</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R22" t="n">
-        <v>7121461.207019502</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3388,10 +3388,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013697</v>
+        <v>112013696</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>86961</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>4962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610102.0736959254</v>
+        <v>610070.1349689787</v>
       </c>
       <c r="R25" t="n">
-        <v>7121412.654772604</v>
+        <v>7121402.360087069</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013691</v>
+        <v>112013703</v>
       </c>
       <c r="B26" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,21 +3516,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610134.4051595986</v>
+        <v>610144.4332068264</v>
       </c>
       <c r="R26" t="n">
-        <v>7121460.896015909</v>
+        <v>7121461.253672058</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013700</v>
+        <v>112013697</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,21 +3628,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610101.9650201321</v>
+        <v>610102.0736959254</v>
       </c>
       <c r="R27" t="n">
-        <v>7121415.702941997</v>
+        <v>7121412.654772604</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013696</v>
+        <v>112013704</v>
       </c>
       <c r="B28" t="n">
-        <v>86961</v>
+        <v>81248</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,21 +3740,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4962</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610070.1349689787</v>
+        <v>610093.591720929</v>
       </c>
       <c r="R28" t="n">
-        <v>7121402.360087069</v>
+        <v>7121454.644715369</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013703</v>
+        <v>112013699</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610144.4332068264</v>
+        <v>610068.1736430819</v>
       </c>
       <c r="R29" t="n">
-        <v>7121461.253672058</v>
+        <v>7121408.394281525</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3948,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013698</v>
+        <v>112013690</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3964,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610094.4326785516</v>
+        <v>610051.8565798617</v>
       </c>
       <c r="R30" t="n">
-        <v>7121455.546697079</v>
+        <v>7121425.252971379</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013690</v>
+        <v>112013700</v>
       </c>
       <c r="B31" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4076,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610051.8565798617</v>
+        <v>610101.9650201321</v>
       </c>
       <c r="R31" t="n">
-        <v>7121425.252971379</v>
+        <v>7121415.702941997</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013704</v>
+        <v>112013691</v>
       </c>
       <c r="B32" t="n">
-        <v>81248</v>
+        <v>88489</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610093.591720929</v>
+        <v>610134.4051595986</v>
       </c>
       <c r="R32" t="n">
-        <v>7121454.644715369</v>
+        <v>7121460.896015909</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4284,7 +4284,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013699</v>
+        <v>112013698</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610068.1736430819</v>
+        <v>610094.4326785516</v>
       </c>
       <c r="R33" t="n">
-        <v>7121408.394281525</v>
+        <v>7121455.546697079</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815269</v>
+        <v>111814688</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610053.7842541422</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R16" t="n">
-        <v>7121273.15248157</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814478</v>
+        <v>111815114</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2494,38 +2494,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610155.3487898401</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R17" t="n">
-        <v>7121461.207019502</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814688</v>
+        <v>111814591</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,25 +2716,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610011.2059644217</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R19" t="n">
-        <v>7121475.688616944</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814591</v>
+        <v>111815269</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610012.4812897337</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R20" t="n">
-        <v>7121464.398116477</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815114</v>
+        <v>111814478</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,38 +2946,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610384.0265214761</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R21" t="n">
-        <v>7121170.261031131</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3388,10 +3388,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013696</v>
+        <v>112013699</v>
       </c>
       <c r="B25" t="n">
-        <v>86961</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4962</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610070.1349689787</v>
+        <v>610068.1736430819</v>
       </c>
       <c r="R25" t="n">
-        <v>7121402.360087069</v>
+        <v>7121408.394281525</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013703</v>
+        <v>112013697</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,21 +3516,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610144.4332068264</v>
+        <v>610102.0736959254</v>
       </c>
       <c r="R26" t="n">
-        <v>7121461.253672058</v>
+        <v>7121412.654772604</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013697</v>
+        <v>112013696</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>86961</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,21 +3628,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>4962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610102.0736959254</v>
+        <v>610070.1349689787</v>
       </c>
       <c r="R27" t="n">
-        <v>7121412.654772604</v>
+        <v>7121402.360087069</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3724,10 +3724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013704</v>
+        <v>112013691</v>
       </c>
       <c r="B28" t="n">
-        <v>81248</v>
+        <v>88489</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,21 +3740,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>1962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610093.591720929</v>
+        <v>610134.4051595986</v>
       </c>
       <c r="R28" t="n">
-        <v>7121454.644715369</v>
+        <v>7121460.896015909</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3836,10 +3836,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013699</v>
+        <v>112013704</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3852,21 +3852,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610068.1736430819</v>
+        <v>610093.591720929</v>
       </c>
       <c r="R29" t="n">
-        <v>7121408.394281525</v>
+        <v>7121454.644715369</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3948,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013690</v>
+        <v>112013700</v>
       </c>
       <c r="B30" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3964,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610051.8565798617</v>
+        <v>610101.9650201321</v>
       </c>
       <c r="R30" t="n">
-        <v>7121425.252971379</v>
+        <v>7121415.702941997</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4060,7 +4060,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013700</v>
+        <v>112013703</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610101.9650201321</v>
+        <v>610144.4332068264</v>
       </c>
       <c r="R31" t="n">
-        <v>7121415.702941997</v>
+        <v>7121461.253672058</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013691</v>
+        <v>112013698</v>
       </c>
       <c r="B32" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610134.4051595986</v>
+        <v>610094.4326785516</v>
       </c>
       <c r="R32" t="n">
-        <v>7121460.896015909</v>
+        <v>7121455.546697079</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4284,10 +4284,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013698</v>
+        <v>112013690</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4300,21 +4300,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610094.4326785516</v>
+        <v>610051.8565798617</v>
       </c>
       <c r="R33" t="n">
-        <v>7121455.546697079</v>
+        <v>7121425.252971379</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814688</v>
+        <v>111815114</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,42 +2377,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610011.2059644217</v>
+        <v>610384.0265214761</v>
       </c>
       <c r="R16" t="n">
-        <v>7121475.688616944</v>
+        <v>7121170.261031131</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815114</v>
+        <v>111815269</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,42 +2490,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610384.0265214761</v>
+        <v>610053.7842541422</v>
       </c>
       <c r="R17" t="n">
-        <v>7121170.261031131</v>
+        <v>7121273.15248157</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2704,7 +2704,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814591</v>
+        <v>111814478</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610012.4812897337</v>
+        <v>610155.3487898401</v>
       </c>
       <c r="R19" t="n">
-        <v>7121464.398116477</v>
+        <v>7121461.207019502</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815269</v>
+        <v>111814591</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610053.7842541422</v>
+        <v>610012.4812897337</v>
       </c>
       <c r="R20" t="n">
-        <v>7121273.15248157</v>
+        <v>7121464.398116477</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814478</v>
+        <v>111814104</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,21 +2946,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610155.3487898401</v>
+        <v>610154.5078508666</v>
       </c>
       <c r="R21" t="n">
-        <v>7121461.207019502</v>
+        <v>7121460.305022033</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814104</v>
+        <v>111814688</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3055,25 +3055,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610154.5078508666</v>
+        <v>610011.2059644217</v>
       </c>
       <c r="R22" t="n">
-        <v>7121460.305022033</v>
+        <v>7121475.688616944</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3388,10 +3388,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013699</v>
+        <v>112013690</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610068.1736430819</v>
+        <v>610051.8565798617</v>
       </c>
       <c r="R25" t="n">
-        <v>7121408.394281525</v>
+        <v>7121425.252971379</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013697</v>
+        <v>112013698</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,21 +3516,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610102.0736959254</v>
+        <v>610094.4326785516</v>
       </c>
       <c r="R26" t="n">
-        <v>7121412.654772604</v>
+        <v>7121455.546697079</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3836,10 +3836,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013704</v>
+        <v>112013703</v>
       </c>
       <c r="B29" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3852,21 +3852,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610093.591720929</v>
+        <v>610144.4332068264</v>
       </c>
       <c r="R29" t="n">
-        <v>7121454.644715369</v>
+        <v>7121461.253672058</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3948,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013700</v>
+        <v>112013697</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3964,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610101.9650201321</v>
+        <v>610102.0736959254</v>
       </c>
       <c r="R30" t="n">
-        <v>7121415.702941997</v>
+        <v>7121412.654772604</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013703</v>
+        <v>112013699</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610144.4332068264</v>
+        <v>610068.1736430819</v>
       </c>
       <c r="R31" t="n">
-        <v>7121461.253672058</v>
+        <v>7121408.394281525</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013698</v>
+        <v>112013704</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610094.4326785516</v>
+        <v>610093.591720929</v>
       </c>
       <c r="R32" t="n">
-        <v>7121455.546697079</v>
+        <v>7121454.644715369</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013690</v>
+        <v>112013700</v>
       </c>
       <c r="B33" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4300,21 +4300,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610051.8565798617</v>
+        <v>610101.9650201321</v>
       </c>
       <c r="R33" t="n">
-        <v>7121425.252971379</v>
+        <v>7121415.702941997</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610384.0265214761</v>
+        <v>610384</v>
       </c>
       <c r="R16" t="n">
-        <v>7121170.261031131</v>
+        <v>7121170</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610053.7842541422</v>
+        <v>610054</v>
       </c>
       <c r="R17" t="n">
-        <v>7121273.15248157</v>
+        <v>7121273</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815024</v>
+        <v>111814591</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2607,21 +2607,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>609922.1399673244</v>
+        <v>610012</v>
       </c>
       <c r="R18" t="n">
-        <v>7121488.212810148</v>
+        <v>7121464</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610155.3487898401</v>
+        <v>610155</v>
       </c>
       <c r="R19" t="n">
-        <v>7121461.207019502</v>
+        <v>7121461</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814591</v>
+        <v>111814688</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610012.4812897337</v>
+        <v>610011</v>
       </c>
       <c r="R20" t="n">
-        <v>7121464.398116477</v>
+        <v>7121476</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610154.5078508666</v>
+        <v>610155</v>
       </c>
       <c r="R21" t="n">
-        <v>7121460.305022033</v>
+        <v>7121460</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814688</v>
+        <v>111815024</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3055,25 +3055,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610011.2059644217</v>
+        <v>609922</v>
       </c>
       <c r="R22" t="n">
-        <v>7121475.688616944</v>
+        <v>7121488</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610384.0265214761</v>
+        <v>610384</v>
       </c>
       <c r="R23" t="n">
-        <v>7121170.261031131</v>
+        <v>7121170</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610408.7246031044</v>
+        <v>610409</v>
       </c>
       <c r="R24" t="n">
-        <v>7121114.457637121</v>
+        <v>7121114</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3348,19 +3348,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3388,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013690</v>
+        <v>112013699</v>
       </c>
       <c r="B25" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3404,21 +3394,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3428,10 +3418,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610051.8565798617</v>
+        <v>610068</v>
       </c>
       <c r="R25" t="n">
-        <v>7121425.252971379</v>
+        <v>7121408</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3463,7 +3453,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3473,7 +3463,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3500,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013698</v>
+        <v>112013691</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3540,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610094.4326785516</v>
+        <v>610134</v>
       </c>
       <c r="R26" t="n">
-        <v>7121455.546697079</v>
+        <v>7121461</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3575,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3585,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3612,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013696</v>
+        <v>112013704</v>
       </c>
       <c r="B27" t="n">
-        <v>86961</v>
+        <v>81248</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4962</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610070.1349689787</v>
+        <v>610094</v>
       </c>
       <c r="R27" t="n">
-        <v>7121402.360087069</v>
+        <v>7121455</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3687,7 +3677,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3697,7 +3687,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3724,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013691</v>
+        <v>112013703</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,21 +3730,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3764,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610134.4051595986</v>
+        <v>610144</v>
       </c>
       <c r="R28" t="n">
-        <v>7121460.896015909</v>
+        <v>7121461</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3799,7 +3789,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3809,7 +3799,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3836,7 +3826,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013703</v>
+        <v>112013700</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3876,10 +3866,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610144.4332068264</v>
+        <v>610102</v>
       </c>
       <c r="R29" t="n">
-        <v>7121461.253672058</v>
+        <v>7121416</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3911,7 +3901,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3921,7 +3911,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3948,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013697</v>
+        <v>112013698</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3954,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610102.0736959254</v>
+        <v>610094</v>
       </c>
       <c r="R30" t="n">
-        <v>7121412.654772604</v>
+        <v>7121456</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4023,7 +4013,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4033,7 +4023,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4060,10 +4050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013699</v>
+        <v>112013696</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>86961</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4066,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>4962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610068.1736430819</v>
+        <v>610070</v>
       </c>
       <c r="R31" t="n">
-        <v>7121408.394281525</v>
+        <v>7121402</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4172,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013704</v>
+        <v>112013697</v>
       </c>
       <c r="B32" t="n">
-        <v>81248</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4178,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610093.591720929</v>
+        <v>610102</v>
       </c>
       <c r="R32" t="n">
-        <v>7121454.644715369</v>
+        <v>7121413</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4247,7 +4237,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4257,7 +4247,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4284,10 +4274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013700</v>
+        <v>112013690</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4300,21 +4290,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4324,10 +4314,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610101.9650201321</v>
+        <v>610052</v>
       </c>
       <c r="R33" t="n">
-        <v>7121415.702941997</v>
+        <v>7121425</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4359,7 +4349,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4369,7 +4359,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -2365,10 +2365,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815114</v>
+        <v>111814688</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,42 +2377,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>åsele 1:1, Ås lm</t>
+          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610384</v>
+        <v>610011</v>
       </c>
       <c r="R16" t="n">
-        <v>7121170</v>
+        <v>7121476</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2478,10 +2478,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815269</v>
+        <v>111814591</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610054</v>
+        <v>610012</v>
       </c>
       <c r="R17" t="n">
-        <v>7121273</v>
+        <v>7121464</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2591,10 +2591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814591</v>
+        <v>111814104</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2607,21 +2607,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610012</v>
+        <v>610155</v>
       </c>
       <c r="R18" t="n">
-        <v>7121464</v>
+        <v>7121460</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814478</v>
+        <v>111815024</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,21 +2720,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610155</v>
+        <v>609922</v>
       </c>
       <c r="R19" t="n">
-        <v>7121461</v>
+        <v>7121488</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814688</v>
+        <v>111814478</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,25 +2829,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610011</v>
+        <v>610155</v>
       </c>
       <c r="R20" t="n">
-        <v>7121476</v>
+        <v>7121461</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814104</v>
+        <v>111815269</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610155</v>
+        <v>610054</v>
       </c>
       <c r="R21" t="n">
-        <v>7121460</v>
+        <v>7121273</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815024</v>
+        <v>111815114</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3059,38 +3059,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>åsele 1:1 (åsele 1:1), Ås lm</t>
+          <t>åsele 1:1, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>609922</v>
+        <v>610384</v>
       </c>
       <c r="R22" t="n">
-        <v>7121488</v>
+        <v>7121170</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3275,7 +3275,7 @@
         <v>111881914</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>88623</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013699</v>
+        <v>112013700</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610068</v>
+        <v>610102</v>
       </c>
       <c r="R25" t="n">
-        <v>7121408</v>
+        <v>7121416</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3490,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013691</v>
+        <v>112013704</v>
       </c>
       <c r="B26" t="n">
-        <v>88489</v>
+        <v>81371</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3506,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610134</v>
+        <v>610094</v>
       </c>
       <c r="R26" t="n">
-        <v>7121461</v>
+        <v>7121455</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3602,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013704</v>
+        <v>112013697</v>
       </c>
       <c r="B27" t="n">
-        <v>81248</v>
+        <v>89557</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3618,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610094</v>
+        <v>610102</v>
       </c>
       <c r="R27" t="n">
-        <v>7121455</v>
+        <v>7121413</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013703</v>
+        <v>112013690</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>88623</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3730,21 +3730,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610144</v>
+        <v>610052</v>
       </c>
       <c r="R28" t="n">
-        <v>7121461</v>
+        <v>7121425</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013700</v>
+        <v>112013703</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610102</v>
+        <v>610144</v>
       </c>
       <c r="R29" t="n">
-        <v>7121416</v>
+        <v>7121461</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3938,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013698</v>
+        <v>112013696</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>87095</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>4962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610094</v>
+        <v>610070</v>
       </c>
       <c r="R30" t="n">
-        <v>7121456</v>
+        <v>7121402</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4050,10 +4050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013696</v>
+        <v>112013698</v>
       </c>
       <c r="B31" t="n">
-        <v>86961</v>
+        <v>77636</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4066,21 +4066,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4962</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610070</v>
+        <v>610094</v>
       </c>
       <c r="R31" t="n">
-        <v>7121402</v>
+        <v>7121456</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013697</v>
+        <v>112013691</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>88623</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610102</v>
+        <v>610134</v>
       </c>
       <c r="R32" t="n">
-        <v>7121413</v>
+        <v>7121461</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,10 +4274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013690</v>
+        <v>112013699</v>
       </c>
       <c r="B33" t="n">
-        <v>88489</v>
+        <v>77636</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4290,21 +4290,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610052</v>
+        <v>610068</v>
       </c>
       <c r="R33" t="n">
-        <v>7121425</v>
+        <v>7121408</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -3275,7 +3275,7 @@
         <v>111881914</v>
       </c>
       <c r="B24" t="n">
-        <v>88623</v>
+        <v>88637</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013700</v>
+        <v>112013691</v>
       </c>
       <c r="B25" t="n">
-        <v>77636</v>
+        <v>88637</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3394,21 +3394,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610102</v>
+        <v>610134</v>
       </c>
       <c r="R25" t="n">
-        <v>7121416</v>
+        <v>7121461</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3490,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013704</v>
+        <v>112013696</v>
       </c>
       <c r="B26" t="n">
-        <v>81371</v>
+        <v>87109</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3506,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>4962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610094</v>
+        <v>610070</v>
       </c>
       <c r="R26" t="n">
-        <v>7121455</v>
+        <v>7121402</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3605,7 +3605,7 @@
         <v>112013697</v>
       </c>
       <c r="B27" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013690</v>
+        <v>112013698</v>
       </c>
       <c r="B28" t="n">
-        <v>88623</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3730,21 +3730,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610052</v>
+        <v>610094</v>
       </c>
       <c r="R28" t="n">
-        <v>7121425</v>
+        <v>7121456</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013703</v>
+        <v>112013699</v>
       </c>
       <c r="B29" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610144</v>
+        <v>610068</v>
       </c>
       <c r="R29" t="n">
-        <v>7121461</v>
+        <v>7121408</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3938,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013696</v>
+        <v>112013704</v>
       </c>
       <c r="B30" t="n">
-        <v>87095</v>
+        <v>81385</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4962</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610070</v>
+        <v>610094</v>
       </c>
       <c r="R30" t="n">
-        <v>7121402</v>
+        <v>7121455</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4050,10 +4050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013698</v>
+        <v>112013690</v>
       </c>
       <c r="B31" t="n">
-        <v>77636</v>
+        <v>88637</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4066,21 +4066,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610094</v>
+        <v>610052</v>
       </c>
       <c r="R31" t="n">
-        <v>7121456</v>
+        <v>7121425</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013691</v>
+        <v>112013700</v>
       </c>
       <c r="B32" t="n">
-        <v>88623</v>
+        <v>77650</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610134</v>
+        <v>610102</v>
       </c>
       <c r="R32" t="n">
-        <v>7121461</v>
+        <v>7121416</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,10 +4274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013699</v>
+        <v>112013703</v>
       </c>
       <c r="B33" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610068</v>
+        <v>610144</v>
       </c>
       <c r="R33" t="n">
-        <v>7121408</v>
+        <v>7121461</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -3378,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013691</v>
+        <v>112013696</v>
       </c>
       <c r="B25" t="n">
-        <v>88637</v>
+        <v>87109</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3394,21 +3394,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>4962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610134</v>
+        <v>610070</v>
       </c>
       <c r="R25" t="n">
-        <v>7121461</v>
+        <v>7121402</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3490,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013696</v>
+        <v>112013703</v>
       </c>
       <c r="B26" t="n">
-        <v>87109</v>
+        <v>77650</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3506,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4962</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610070</v>
+        <v>610144</v>
       </c>
       <c r="R26" t="n">
-        <v>7121402</v>
+        <v>7121461</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3602,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013697</v>
+        <v>112013690</v>
       </c>
       <c r="B27" t="n">
-        <v>89571</v>
+        <v>88637</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3618,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610102</v>
+        <v>610052</v>
       </c>
       <c r="R27" t="n">
-        <v>7121413</v>
+        <v>7121425</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013698</v>
+        <v>112013697</v>
       </c>
       <c r="B28" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3730,21 +3730,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610094</v>
+        <v>610102</v>
       </c>
       <c r="R28" t="n">
-        <v>7121456</v>
+        <v>7121413</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112013699</v>
+        <v>112013691</v>
       </c>
       <c r="B29" t="n">
-        <v>77650</v>
+        <v>88637</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3842,21 +3842,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610068</v>
+        <v>610134</v>
       </c>
       <c r="R29" t="n">
-        <v>7121408</v>
+        <v>7121461</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3938,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013704</v>
+        <v>112013699</v>
       </c>
       <c r="B30" t="n">
-        <v>81385</v>
+        <v>77650</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610094</v>
+        <v>610068</v>
       </c>
       <c r="R30" t="n">
-        <v>7121455</v>
+        <v>7121408</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4050,10 +4050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013690</v>
+        <v>112013700</v>
       </c>
       <c r="B31" t="n">
-        <v>88637</v>
+        <v>77650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4066,21 +4066,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610052</v>
+        <v>610102</v>
       </c>
       <c r="R31" t="n">
-        <v>7121425</v>
+        <v>7121416</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013700</v>
+        <v>112013704</v>
       </c>
       <c r="B32" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610102</v>
+        <v>610094</v>
       </c>
       <c r="R32" t="n">
-        <v>7121416</v>
+        <v>7121455</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,7 +4274,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013703</v>
+        <v>112013698</v>
       </c>
       <c r="B33" t="n">
         <v>77650</v>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610144</v>
+        <v>610094</v>
       </c>
       <c r="R33" t="n">
-        <v>7121461</v>
+        <v>7121456</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -3490,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013703</v>
+        <v>112013690</v>
       </c>
       <c r="B26" t="n">
-        <v>77650</v>
+        <v>88637</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3506,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610144</v>
+        <v>610052</v>
       </c>
       <c r="R26" t="n">
-        <v>7121461</v>
+        <v>7121425</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3602,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013690</v>
+        <v>112013703</v>
       </c>
       <c r="B27" t="n">
-        <v>88637</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3618,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610052</v>
+        <v>610144</v>
       </c>
       <c r="R27" t="n">
-        <v>7121425</v>
+        <v>7121461</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 64788-2019.xlsx
+++ b/artfynd/A 64788-2019.xlsx
@@ -3378,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112013696</v>
+        <v>112013690</v>
       </c>
       <c r="B25" t="n">
-        <v>87109</v>
+        <v>88637</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3394,21 +3394,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4962</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mjölsvärting</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lyophyllum semitale</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr. : Fr.) Kühner</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610070</v>
+        <v>610052</v>
       </c>
       <c r="R25" t="n">
-        <v>7121402</v>
+        <v>7121425</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3490,10 +3490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112013690</v>
+        <v>112013704</v>
       </c>
       <c r="B26" t="n">
-        <v>88637</v>
+        <v>81385</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3506,21 +3506,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610052</v>
+        <v>610094</v>
       </c>
       <c r="R26" t="n">
-        <v>7121425</v>
+        <v>7121455</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3602,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112013703</v>
+        <v>112013696</v>
       </c>
       <c r="B27" t="n">
-        <v>77650</v>
+        <v>87109</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3618,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>4962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mjölsvärting</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyophyllum semitale</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr. : Fr.) Kühner</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610144</v>
+        <v>610070</v>
       </c>
       <c r="R27" t="n">
-        <v>7121461</v>
+        <v>7121402</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112013697</v>
+        <v>112013698</v>
       </c>
       <c r="B28" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3730,21 +3730,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610102</v>
+        <v>610094</v>
       </c>
       <c r="R28" t="n">
-        <v>7121413</v>
+        <v>7121456</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3938,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112013699</v>
+        <v>112013697</v>
       </c>
       <c r="B30" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610068</v>
+        <v>610102</v>
       </c>
       <c r="R30" t="n">
-        <v>7121408</v>
+        <v>7121413</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112013700</v>
+        <v>112013703</v>
       </c>
       <c r="B31" t="n">
         <v>77650</v>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610102</v>
+        <v>610144</v>
       </c>
       <c r="R31" t="n">
-        <v>7121416</v>
+        <v>7121461</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112013704</v>
+        <v>112013699</v>
       </c>
       <c r="B32" t="n">
-        <v>81385</v>
+        <v>77650</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610094</v>
+        <v>610068</v>
       </c>
       <c r="R32" t="n">
-        <v>7121455</v>
+        <v>7121408</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,7 +4274,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112013698</v>
+        <v>112013700</v>
       </c>
       <c r="B33" t="n">
         <v>77650</v>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610094</v>
+        <v>610102</v>
       </c>
       <c r="R33" t="n">
-        <v>7121456</v>
+        <v>7121416</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="AD33" t="b">
